--- a/Data/Master_Data/James_Garner.xlsx
+++ b/Data/Master_Data/James_Garner.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,13 +613,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>43523</v>
+        <v>43688</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -685,61 +685,52 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>7</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>170</v>
+        <v>-10</v>
       </c>
       <c r="AL2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AM2">
-        <v>220</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43696</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>43526</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -804,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -825,31 +816,31 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AL3">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AM3">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43701</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>43534</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -914,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -935,31 +926,31 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM4">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43708</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1027,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1045,31 +1036,31 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AL5">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="AM5">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43722</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>43557</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1134,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1155,31 +1146,31 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL6">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AM6">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43730</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1244,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>2</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>19</v>
@@ -1265,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ7">
         <v>2</v>
       </c>
       <c r="AK7">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AL7">
+        <v>330</v>
+      </c>
+      <c r="AM7">
         <v>230</v>
-      </c>
-      <c r="AM7">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>43576</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1354,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1375,31 +1366,31 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="AL8">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AM8">
-        <v>90</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43744</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>43579</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1464,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>13</v>
@@ -1485,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>-120</v>
+        <v>210</v>
       </c>
       <c r="AL9">
-        <v>-10</v>
+        <v>300</v>
       </c>
       <c r="AM9">
-        <v>-140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43758</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>43583</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1583,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1598,33 +1589,33 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK10">
-        <v>-10</v>
+        <v>-130</v>
       </c>
       <c r="AL10">
-        <v>20</v>
+        <v>-60</v>
       </c>
       <c r="AM10">
-        <v>-70</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43765</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>43590</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1642,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1669,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1693,42 +1684,51 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AL11">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AM11">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>43597</v>
+        <v>43771</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1794,40 +1794,2020 @@
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>-1</v>
+      </c>
+      <c r="AJ12">
         <v>2</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
+      <c r="AK12">
+        <v>280</v>
+      </c>
+      <c r="AL12">
+        <v>340</v>
+      </c>
+      <c r="AM12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43779</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>210</v>
+      </c>
+      <c r="AL13">
+        <v>160</v>
+      </c>
+      <c r="AM13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43793</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>15</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>120</v>
+      </c>
+      <c r="AL14">
+        <v>160</v>
+      </c>
+      <c r="AM14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
+      <c r="B15" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>170</v>
+      </c>
+      <c r="AL15">
+        <v>280</v>
+      </c>
+      <c r="AM15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43803</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>17</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>-20</v>
+      </c>
+      <c r="AL16">
+        <v>130</v>
+      </c>
+      <c r="AM16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43806</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>11</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>-1</v>
+      </c>
+      <c r="AK17">
+        <v>-30</v>
+      </c>
+      <c r="AL17">
+        <v>70</v>
+      </c>
+      <c r="AM17">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43814</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>8</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>-20</v>
+      </c>
+      <c r="AL18">
+        <v>50</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43821</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>-2</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>270</v>
+      </c>
+      <c r="AL19">
+        <v>210</v>
+      </c>
+      <c r="AM19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43825</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>13</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
         <v>3</v>
       </c>
-      <c r="AK12">
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>120</v>
+      </c>
+      <c r="AL20">
         <v>220</v>
       </c>
-      <c r="AL12">
-        <v>170</v>
-      </c>
-      <c r="AM12">
+      <c r="AM20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43827</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>190</v>
+      </c>
+      <c r="AL21">
+        <v>200</v>
+      </c>
+      <c r="AM21">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>-2</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>120</v>
+      </c>
+      <c r="AL22">
         <v>160</v>
+      </c>
+      <c r="AM22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43841</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>14</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>200</v>
+      </c>
+      <c r="AL23">
+        <v>220</v>
+      </c>
+      <c r="AM23">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43849</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>-2</v>
+      </c>
+      <c r="AJ24">
+        <v>-1</v>
+      </c>
+      <c r="AK24">
+        <v>-40</v>
+      </c>
+      <c r="AL24">
+        <v>20</v>
+      </c>
+      <c r="AM24">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43852</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>-2</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>40</v>
+      </c>
+      <c r="AL25">
+        <v>190</v>
+      </c>
+      <c r="AM25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>20</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>30</v>
+      </c>
+      <c r="AL26">
+        <v>30</v>
+      </c>
+      <c r="AM26">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43878</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>2</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>80</v>
+      </c>
+      <c r="AL27">
+        <v>90</v>
+      </c>
+      <c r="AM27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43884</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>18</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>80</v>
+      </c>
+      <c r="AL28">
+        <v>140</v>
+      </c>
+      <c r="AM28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>8</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>200</v>
+      </c>
+      <c r="AL29">
+        <v>230</v>
+      </c>
+      <c r="AM29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43898</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>11</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>-1</v>
+      </c>
+      <c r="AK30">
+        <v>-120</v>
+      </c>
+      <c r="AL30">
+        <v>-10</v>
+      </c>
+      <c r="AM30">
+        <v>-140</v>
       </c>
     </row>
   </sheetData>
